--- a/Data/Transitions/19181923Translation.xlsx
+++ b/Data/Transitions/19181923Translation.xlsx
@@ -61,7 +61,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -127,7 +127,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.4741146168705731}</t>
+    <t>{834.0: 0.47414514778800954}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -187,7 +187,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.477532649597875}</t>
+    <t>{86.0: 0.4752871433864394}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -250,7 +250,7 @@
     <t>{107.0: 1.0}</t>
   </si>
   <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008435213853451006}</t>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008435255909037489}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -268,7 +268,7 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
+    <t>{142.0: 0.7317831753554502}</t>
   </si>
   <si>
     <t>{144.0: 0.9914900449582531}</t>
@@ -307,7 +307,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -334,7 +334,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.20598512462143895}</t>
+    <t>{174.0: 1.0, 502.0: 0.20775329690244515}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -346,7 +346,7 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
   </si>
   <si>
     <t>{179.0: 1.0}</t>
@@ -406,7 +406,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.25196850393700787}</t>
+    <t>{897.0: 0.25139664804469275}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -475,13 +475,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.7174180832717418}</t>
+    <t>{246.0: 0.7176267848350566}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -490,13 +493,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
+    <t>{249.0: 0.9929308797127468}</t>
   </si>
   <si>
     <t>{250.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.5544624033731553}</t>
+    <t>{251.0: 0.568021803315921}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -535,7 +538,7 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 1.0, 843.0: 0.06314330958036421}</t>
+    <t>{264.0: 1.0, 843.0: 0.06454876568191016}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -598,7 +601,7 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 1.0, 730.0: 0.046404895461499236}</t>
+    <t>{289.0: 1.0, 730.0: 0.047420531526836895}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
@@ -625,7 +628,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.7768290641218818}</t>
+    <t>{298.0: 0.7768166089965398}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -649,7 +652,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -688,9 +691,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -712,7 +712,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9902515215166694}</t>
+    <t>{404.0: 0.9902331102957047}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -787,10 +787,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -871,19 +871,19 @@
     <t>{492.0: 1.0}</t>
   </si>
   <si>
-    <t>{493.0: 1.0, 108.0: 0.008782794730323161, 144.0: 7.474118829594212e-05}</t>
+    <t>{493.0: 1.0, 108.0: 0.008777852802160702, 144.0: 7.469913270946005e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -892,13 +892,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.22250535389953646}</t>
+    <t>{277.0: 0.22161110692129385}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.794014875378561}</t>
+    <t>{502.0: 0.7922467030975547}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -937,7 +937,7 @@
     <t>{535.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.8551437537104571}</t>
+    <t>{604.0: 0.8534475447375116}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -1009,7 +1009,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8768705547652916}</t>
+    <t>{580.0: 0.8765544780376497}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1060,7 +1060,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1114,7 +1114,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1156,7 +1156,7 @@
     <t>{631.0: 1.0}</t>
   </si>
   <si>
-    <t>{251.0: 0.44553759662684467}</t>
+    <t>{251.0: 0.43197819668407905}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1219,7 +1219,7 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.522467350402125, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
+    <t>{86.0: 0.5247128566135606, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1258,10 +1258,10 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.9535951045385007}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{730.0: 0.9525794684731631}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
@@ -1291,7 +1291,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 789.0: 0.001348799568384138}</t>
+    <t>{741.0: 1.0, 789.0: 0.0013518385003604902}</t>
   </si>
   <si>
     <t>{742.0: 1.0}</t>
@@ -1318,7 +1318,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.1231294452347084}</t>
+    <t>{580.0: 0.12344552196235026}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1420,13 +1420,13 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.05191791590989184}</t>
+    <t>{277.0: 0.05281216288813442}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158}</t>
+    <t>{789.0: 0.9986481614996395}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1438,7 +1438,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1465,7 +1465,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9368566904196358}</t>
+    <t>{843.0: 0.9354512343180899}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1558,10 +1558,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.025430154564012833}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7226013414989793}</t>
+    <t>{896.0: 1.0, 897.0: 0.02537243947858473}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7232309124767226}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1570,10 +1570,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.0925121962135792, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.0925121962135792, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -1600,7 +1600,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1654,7 +1654,7 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{938.0: 1.0, 497.0: 0.03279947345326898, 731.0: 0.14154999448792857}</t>
+    <t>{938.0: 1.0, 497.0: 0.03292407641909376, 731.0: 0.11631488359452849}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
@@ -1702,10 +1702,10 @@
     <t>{981.0: 1.0}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -1732,7 +1732,7 @@
     <t>{92.0: 1.0}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1750,7 +1750,7 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 502.0: 0.47303499899021645}</t>
+    <t>{174.0: 0.529134601041196, 502.0: 0.47086539895880397}</t>
   </si>
   <si>
     <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
@@ -1786,7 +1786,7 @@
     <t>{289.0: 0.9615709459459459, 730.0: 0.03842905405405406}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1834,7 +1834,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.9312977099236641, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.9320388349514563, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{620.0: 0.9954229530428885, 785.0: 0.004577046957111375}</t>
@@ -1843,7 +1843,7 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
   </si>
   <si>
     <t>{702.0: 1.0}</t>
@@ -1858,7 +1858,7 @@
     <t>{741.0: 0.9955237242614147, 789.0: 0.004476275738585497}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
+    <t>{746.0: 0.9899854627685348, 691.0: 0.01001453723146503}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -1876,7 +1876,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.12079340900474374, 930.0: 0.8435134338270449, 404.0: 0.0356931571682114}</t>
+    <t>{782.0: 0.12082666428771945, 930.0: 0.8437456590632297, 404.0: 0.03542767664905069}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
@@ -1894,7 +1894,7 @@
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031137, 495.0: 0.035602220613082304}</t>
   </si>
   <si>
-    <t>{990.0: 0.9929775280898876, 599.0: 0.007022471910112359}</t>
+    <t>{990.0: 0.9929775280898875, 599.0: 0.007022471910112359}</t>
   </si>
 </sst>
 </file>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3943,29 +3943,29 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>582</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>582</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3976,51 +3976,51 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>583</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>584</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>584</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4141,29 +4141,29 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>585</v>
+        <v>173</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>174</v>
+        <v>585</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4229,51 +4229,51 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>586</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>586</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>587</v>
+        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>184</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4339,29 +4339,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>588</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4372,29 +4372,29 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>589</v>
+        <v>194</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>195</v>
+        <v>589</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4405,51 +4405,51 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>590</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>198</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>571</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4471,29 +4471,29 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>591</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>591</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4559,29 +4559,29 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>592</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4592,29 +4592,29 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>593</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>215</v>
+        <v>593</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
